--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5533ABA-5265-4BA6-B5B4-EC2A2402152A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F21110D-2160-4C9B-B273-4677DA2D1660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CEF6D3BB-5B15-46B3-8D6A-E40E5F429659}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No.</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence (AI) proctor</t>
+  </si>
+  <si>
+    <t>10/2022 - now</t>
   </si>
 </sst>
 </file>
@@ -53,13 +59,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -67,14 +73,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,7 +88,7 @@
       <u/>
       <sz val="13"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -482,21 +488,21 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1" hidden="1"/>
+    <col min="6" max="6" width="41.796875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.8984375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -516,9 +522,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F2" s="2"/>
     </row>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F21110D-2160-4C9B-B273-4677DA2D1660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03149E67-EDE1-4E54-9513-CFDB0F10D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CEF6D3BB-5B15-46B3-8D6A-E40E5F429659}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>No.</t>
   </si>
@@ -48,7 +48,10 @@
     <t>Artificial Intelligence (AI) proctor</t>
   </si>
   <si>
-    <t>10/2022 - now</t>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>2022 - now</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
@@ -529,8 +532,11 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2"/>
     </row>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03149E67-EDE1-4E54-9513-CFDB0F10D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A44B5F0-C79C-4506-A46D-EF4BDC606CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CEF6D3BB-5B15-46B3-8D6A-E40E5F429659}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>No.</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>2022 - now</t>
+  </si>
+  <si>
+    <t>House prices prediction</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>2023 - now</t>
+  </si>
+  <si>
+    <t>Kaggle Competition</t>
   </si>
 </sst>
 </file>
@@ -62,13 +74,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -76,14 +88,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,7 +103,7 @@
       <u/>
       <sz val="13"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -488,24 +500,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD57F45-375A-4F26-B7F2-1EB23067C7A5}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.796875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.8984375" style="1" hidden="1"/>
+    <col min="6" max="6" width="41.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -525,20 +537,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F3" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A44B5F0-C79C-4506-A46D-EF4BDC606CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201446C3-9100-4953-892F-4883C31D0044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CEF6D3BB-5B15-46B3-8D6A-E40E5F429659}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>No.</t>
   </si>
@@ -52,25 +52,13 @@
   </si>
   <si>
     <t>2022 - now</t>
-  </si>
-  <si>
-    <t>House prices prediction</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>2023 - now</t>
-  </si>
-  <si>
-    <t>Kaggle Competition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +95,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,13 +172,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD57F45-375A-4F26-B7F2-1EB23067C7A5}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -518,56 +514,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201446C3-9100-4953-892F-4883C31D0044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E8EE38-83BC-47A0-95B2-58E13204A7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CEF6D3BB-5B15-46B3-8D6A-E40E5F429659}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No.</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>Funds</t>
   </si>
   <si>
     <t>Notes</t>
@@ -496,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD57F45-375A-4F26-B7F2-1EB23067C7A5}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -508,12 +505,11 @@
     <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.77734375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1" hidden="1"/>
+    <col min="5" max="5" width="41.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -526,27 +522,24 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E8EE38-83BC-47A0-95B2-58E13204A7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2327DC93-F2E4-4930-82E4-5F925C27E55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{CEF6D3BB-5B15-46B3-8D6A-E40E5F429659}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Projects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -42,20 +37,20 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Artificial Intelligence (AI) proctor</t>
-  </si>
-  <si>
     <t>Researcher</t>
   </si>
   <si>
-    <t>2022 - now</t>
+    <t>2024 - now</t>
+  </si>
+  <si>
+    <t>Traffic Light Optimization Based on Traffic Density</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,41 +59,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="13"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,16 +97,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -136,55 +114,75 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -231,20 +229,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -272,31 +270,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -324,23 +305,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -352,198 +316,221 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD57F45-375A-4F26-B7F2-1EB23067C7A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1" hidden="1"/>
+    <col min="1" max="1" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\HTML CSS\My Website\NguyenNgocTriVi\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2327DC93-F2E4-4930-82E4-5F925C27E55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66779550-FBC2-4733-92A6-48B1D7C379B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Projects" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>2024 - now</t>
   </si>
   <si>
-    <t>Traffic Light Optimization Based on Traffic Density</t>
+    <t>Optimizing Traffic Lights Using Traffic Density</t>
   </si>
 </sst>
 </file>
@@ -484,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66779550-FBC2-4733-92A6-48B1D7C379B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1ACD29-2215-489D-97BA-FCD1BFC25505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>No.</t>
   </si>
@@ -44,13 +44,22 @@
   </si>
   <si>
     <t>Optimizing Traffic Lights Using Traffic Density</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Nozzle Quality Inspection</t>
+  </si>
+  <si>
+    <t>Internship project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,20 +68,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -87,51 +82,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -145,37 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,53 +411,69 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" hidden="1"/>
+    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1ACD29-2215-489D-97BA-FCD1BFC25505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC233A7-BB3B-44CA-BA69-ED1034480680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Projects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>No.</t>
   </si>
@@ -35,24 +35,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Researcher</t>
-  </si>
-  <si>
-    <t>2024 - now</t>
-  </si>
-  <si>
-    <t>Optimizing Traffic Lights Using Traffic Density</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Nozzle Quality Inspection</t>
-  </si>
-  <si>
-    <t>Internship project</t>
   </si>
 </sst>
 </file>
@@ -411,10 +393,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -444,37 +426,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC233A7-BB3B-44CA-BA69-ED1034480680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C8F894-2FD0-4850-8218-ED150D68838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No.</t>
   </si>
@@ -28,20 +28,17 @@
     <t>Project name</t>
   </si>
   <si>
-    <t>My role</t>
+    <t>Notes</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t>My role</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +52,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -64,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -79,13 +84,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -393,37 +449,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E38"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1" hidden="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="str">
+        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C8F894-2FD0-4850-8218-ED150D68838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6710A5-0F6A-44F5-8223-D2D78B4F333A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -479,9 +479,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="str">
-        <f>IF(COUNTA(B2:B7) - ROW() + 2 &gt; 0, COUNTA(B2:B7) - ROW() + 2,"")</f>
-        <v/>
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Github\nntrivi2001.github.io\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6710A5-0F6A-44F5-8223-D2D78B4F333A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4245C9-7F74-499B-BECA-152F75F7C4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>No.</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>My role</t>
+  </si>
+  <si>
+    <t>Vehicle Counting</t>
+  </si>
+  <si>
+    <t>Developer</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -480,7 +486,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4245C9-7F74-499B-BECA-152F75F7C4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C20A5D-DE39-4A02-A31B-0C0A0F69E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,10 @@
     <t>My role</t>
   </si>
   <si>
-    <t>Vehicle Counting</t>
+    <t>Developer</t>
   </si>
   <si>
-    <t>Developer</t>
+    <t>License Plate Recognition</t>
   </si>
 </sst>
 </file>
@@ -48,7 +48,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -62,7 +62,7 @@
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -458,16 +458,16 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1" hidden="1"/>
+    <col min="1" max="1" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.8984375" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/currentprojects.xlsx
+++ b/assets/data/currentprojects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Github\nntrivi2001.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C20A5D-DE39-4A02-A31B-0C0A0F69E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76936E04-84FC-4E12-98EF-6C27D904E8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No.</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>My role</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>License Plate Recognition</t>
   </si>
 </sst>
 </file>
@@ -458,7 +452,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -486,13 +480,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
